--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/32/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/32/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3103103103103103</v>
+        <v>0.5575557555755576</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>728.7287287287288</v>
+        <v>1033.373337333733</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07217217217217217</v>
+        <v>0.08961896189618962</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1201201201201201</v>
+        <v>0.6938693869386939</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1087.087087087087</v>
+        <v>1416.071607160716</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.06006006006007</v>
+        <v>898.919891989199</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.04504504504505</v>
+        <v>814.6669666966696</v>
       </c>
     </row>
   </sheetData>
